--- a/src/files/h2_insert-into-clientes.xlsx
+++ b/src/files/h2_insert-into-clientes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnny/Developer/SantanderTecnologia/internet_banking_api/src/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56CF0082-FC11-6447-B0F6-E4CDE61C7F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA20ACB-EA4E-534B-B31A-66DA46655743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{23CB3ABE-F7CA-FB4A-BC40-112F5E3FA07A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>id</t>
   </si>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t>1098.70</t>
+  </si>
+  <si>
+    <t>dataFormatada</t>
   </si>
 </sst>
 </file>
@@ -619,20 +622,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB6878F-AB61-DA4B-9CE1-75D1975CB6FA}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2:H31"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="27.6640625" customWidth="1"/>
-    <col min="8" max="8" width="68.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -652,13 +662,16 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -677,12 +690,13 @@
       <c r="F2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H2" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES VALUES(",$A2,", '",$B2,"' , '8/7/2018'",", ",$D2,", ",$E2,", ",$F2,");")</f>
-        <v>INSERT INTO CLIENTES VALUES(1, 'João' , '8/7/2018', 100001, 1, 910.79);</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G2" s="4"/>
+      <c r="I2" t="str">
+        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A2,", '",$B2,"' , '8/7/2018'",", ",$D2,", ",$E2,", ",$F2,");")</f>
+        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (1, 'João' , '8/7/2018', 100001, 1, 910.79);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -701,12 +715,13 @@
       <c r="F3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H3" t="str">
-        <f t="shared" ref="H3:H31" si="0">CONCATENATE("INSERT INTO CLIENTES VALUES(",$A3,", '",$B3,"' , '8/7/2018'",", ",$D3,", ",$E3,", ",$F3,");")</f>
-        <v>INSERT INTO CLIENTES VALUES(2, 'Johnny' , '8/7/2018', 100002, 0, 570.00);</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G3" s="5"/>
+      <c r="I3" t="str">
+        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A3,", '",$B3,"' , '03/5/1982'",", ",$D3,", ",$E3,", ",$F3,");")</f>
+        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (2, 'Johnny' , '03/5/1982', 100002, 0, 570.00);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -725,12 +740,13 @@
       <c r="F4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CLIENTES VALUES(3, 'Silmara' , '8/7/2018', 100003, 1, 1500.00);</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G4" s="5"/>
+      <c r="I4" t="str">
+        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A4,", '",$B4,"' , '10/08/1981'",", ",$D4,", ",$E4,", ",$F4,");")</f>
+        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (3, 'Silmara' , '10/08/1981', 100003, 1, 1500.00);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -749,12 +765,13 @@
       <c r="F5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H5" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CLIENTES VALUES(4, 'Maria' , '8/7/2018', 100004, 0, 1320.00);</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G5" s="5"/>
+      <c r="I5" t="str">
+        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A5,", '",$B5,"' , '31/03/2000'",", ",$D5,", ",$E5,", ",$F5,");")</f>
+        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (4, 'Maria' , '31/03/2000', 100004, 0, 1320.00);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -773,12 +790,13 @@
       <c r="F6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CLIENTES VALUES(5, 'Antonio' , '8/7/2018', 100005, 1, 2360.00);</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G6" s="5"/>
+      <c r="I6" t="str">
+        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A6,", '",$B6,"' , '10/07/1950'",", ",$D6,", ",$E6,", ",$F6,");")</f>
+        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (5, 'Antonio' , '10/07/1950', 100005, 1, 2360.00);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -797,12 +815,13 @@
       <c r="F7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H7" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CLIENTES VALUES(6, 'Aldy' , '8/7/2018', 100006, 1, 1020.00);</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G7" s="5"/>
+      <c r="I7" t="str">
+        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A7,", '",$B7,"' , '20/12/1961'",", ",$D7,", ",$E7,", ",$F7,");")</f>
+        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (6, 'Aldy' , '20/12/1961', 100006, 1, 1020.00);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -821,12 +840,13 @@
       <c r="F8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H8" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CLIENTES VALUES(7, 'Jefferson' , '8/7/2018', 100007, 0, 250.00);</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G8" s="5"/>
+      <c r="I8" t="str">
+        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A8,", '",$B8,"' , '10/03/1963'",", ",$D8,", ",$E8,", ",$F8,");")</f>
+        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (7, 'Jefferson' , '10/03/1963', 100007, 0, 250.00);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -845,12 +865,13 @@
       <c r="F9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H9" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CLIENTES VALUES(8, 'Henrique' , '8/7/2018', 100008, 0, 890.00);</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G9" s="5"/>
+      <c r="I9" t="str">
+        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A9,", '",$B9,"' , '13/05/1945'",", ",$D9,", ",$E9,", ",$F9,");")</f>
+        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (8, 'Henrique' , '13/05/1945', 100008, 0, 890.00);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -869,12 +890,13 @@
       <c r="F10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CLIENTES VALUES(9, 'Micheli' , '8/7/2018', 100009, 0, 775.00);</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G10" s="5"/>
+      <c r="I10" t="str">
+        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A10,", '",$B10,"' , '11/07/1999'",", ",$D10,", ",$E10,", ",$F10,");")</f>
+        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (9, 'Micheli' , '11/07/1999', 100009, 0, 775.00);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -893,12 +915,13 @@
       <c r="F11" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H11" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CLIENTES VALUES(10, 'Silvania' , '8/7/2018', 100010, 1, 433.5);</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G11" s="5"/>
+      <c r="I11" t="str">
+        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A11,", '",$B11,"' , '30/05/2001'",", ",$D11,", ",$E11,", ",$F11,");")</f>
+        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (10, 'Silvania' , '30/05/2001', 100010, 1, 433.5);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -917,12 +940,13 @@
       <c r="F12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H12" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CLIENTES VALUES(11, 'Florielvis' , '8/7/2018', 100011, 0, 658.00);</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G12" s="5"/>
+      <c r="I12" t="str">
+        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A12,", '",$B12,"' , '14/07/1960'",", ",$D12,", ",$E12,", ",$F12,");")</f>
+        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (11, 'Florielvis' , '14/07/1960', 100011, 0, 658.00);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -941,12 +965,13 @@
       <c r="F13" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H13" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CLIENTES VALUES(12, 'Jonathan' , '8/7/2018', 100012, 0, 709.15);</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G13" s="5"/>
+      <c r="I13" t="str">
+        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A13,", '",$B13,"' , '21/01/2004'",", ",$D13,", ",$E13,", ",$F13,");")</f>
+        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (12, 'Jonathan' , '21/01/2004', 100012, 0, 709.15);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -965,12 +990,13 @@
       <c r="F14" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H14" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CLIENTES VALUES(13, 'Rafael' , '8/7/2018', 100013, 0, 745.1);</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G14" s="5"/>
+      <c r="I14" t="str">
+        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A14,", '",$B14,"' , '30/10/1970'",", ",$D14,", ",$E14,", ",$F14,");")</f>
+        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (13, 'Rafael' , '30/10/1970', 100013, 0, 745.1);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -989,12 +1015,13 @@
       <c r="F15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H15" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CLIENTES VALUES(14, 'Eliana' , '8/7/2018', 100014, 0, 781.05);</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G15" s="5"/>
+      <c r="I15" t="str">
+        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A15,", '",$B15,"' , '18/06/1990'",", ",$D15,", ",$E15,", ",$F15,");")</f>
+        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (14, 'Eliana' , '18/06/1990', 100014, 0, 781.05);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1013,12 +1040,13 @@
       <c r="F16" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H16" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CLIENTES VALUES(15, 'Eliane' , '8/7/2018', 100015, 1, 817.00);</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G16" s="5"/>
+      <c r="I16" t="str">
+        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A16,", '",$B16,"' , '20/06/1978'",", ",$D16,", ",$E16,", ",$F16,");")</f>
+        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (15, 'Eliane' , '20/06/1978', 100015, 1, 817.00);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1037,12 +1065,13 @@
       <c r="F17" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H17" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CLIENTES VALUES(16, 'Sonia' , '8/7/2018', 100016, 1, 852.95);</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G17" s="5"/>
+      <c r="I17" t="str">
+        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A17,", '",$B17,"' , '01/01/1973'",", ",$D17,", ",$E17,", ",$F17,");")</f>
+        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (16, 'Sonia' , '01/01/1973', 100016, 1, 852.95);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1061,12 +1090,13 @@
       <c r="F18" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H18" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CLIENTES VALUES(17, 'Joffily' , '8/7/2018', 100017, 0, 888.90);</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G18" s="5"/>
+      <c r="I18" t="str">
+        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A18,", '",$B18,"' , '06/04/1976'",", ",$D18,", ",$E18,", ",$F18,");")</f>
+        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (17, 'Joffily' , '06/04/1976', 100017, 0, 888.90);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1085,12 +1115,13 @@
       <c r="F19" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H19" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CLIENTES VALUES(18, 'Wilson' , '8/7/2018', 100018, 0, 924.85);</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G19" s="5"/>
+      <c r="I19" t="str">
+        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A19,", '",$B19,"' , '30/10/2001'",", ",$D19,", ",$E19,", ",$F19,");")</f>
+        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (18, 'Wilson' , '30/10/2001', 100018, 0, 924.85);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1109,12 +1140,13 @@
       <c r="F20" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H20" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CLIENTES VALUES(19, 'Jonas' , '8/7/2018', 100019, 0, 960.80);</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G20" s="5"/>
+      <c r="I20" t="str">
+        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A20,", '",$B20,"' , '27/07/1967'",", ",$D20,", ",$E20,", ",$F20,");")</f>
+        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (19, 'Jonas' , '27/07/1967', 100019, 0, 960.80);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1133,12 +1165,13 @@
       <c r="F21" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H21" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CLIENTES VALUES(20, 'Greice' , '8/7/2018', 100020, 0, 996.75);</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G21" s="5"/>
+      <c r="I21" t="str">
+        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A21,", '",$B21,"' , '04/12/1980'",", ",$D21,", ",$E21,", ",$F21,");")</f>
+        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (20, 'Greice' , '04/12/1980', 100020, 0, 996.75);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1157,12 +1190,13 @@
       <c r="F22" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H22" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CLIENTES VALUES(21, 'Gisele' , '8/7/2018', 100021, 0, 1032.70);</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G22" s="5"/>
+      <c r="I22" t="str">
+        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A22,", '",$B22,"' , '20/09/1982'",", ",$D22,", ",$E22,", ",$F22,");")</f>
+        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (21, 'Gisele' , '20/09/1982', 100021, 0, 1032.70);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1181,12 +1215,13 @@
       <c r="F23" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CLIENTES VALUES(22, 'Vanda' , '8/7/2018', 100022, 0, 1068.65);</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G23" s="5"/>
+      <c r="I23" t="str">
+        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A23,", '",$B23,"' , '06/07/1970'",", ",$D23,", ",$E23,", ",$F23,");")</f>
+        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (22, 'Vanda' , '06/07/1970', 100022, 0, 1068.65);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1205,12 +1240,13 @@
       <c r="F24" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H24" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CLIENTES VALUES(23, 'José' , '8/7/2018', 100023, 1, 1104.60);</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G24" s="5"/>
+      <c r="I24" t="str">
+        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A24,", '",$B24,"' , '04/05/1975'",", ",$D24,", ",$E24,", ",$F24,");")</f>
+        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (23, 'José' , '04/05/1975', 100023, 1, 1104.60);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1229,12 +1265,13 @@
       <c r="F25" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H25" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CLIENTES VALUES(24, 'Eduardo' , '8/7/2018', 100024, 1, 1140.55);</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G25" s="5"/>
+      <c r="I25" t="str">
+        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A25,", '",$B25,"' , '10/10/1980'",", ",$D25,", ",$E25,", ",$F25,");")</f>
+        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (24, 'Eduardo' , '10/10/1980', 100024, 1, 1140.55);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1253,12 +1290,13 @@
       <c r="F26" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H26" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CLIENTES VALUES(25, 'Carlos' , '8/7/2018', 100025, 1, 1176.50);</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G26" s="5"/>
+      <c r="I26" t="str">
+        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A26,", '",$B26,"' , '03/10/1957'",", ",$D26,", ",$E26,", ",$F26,");")</f>
+        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (25, 'Carlos' , '03/10/1957', 100025, 1, 1176.50);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1277,12 +1315,13 @@
       <c r="F27" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="H27" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CLIENTES VALUES(26, 'Alexandra' , '8/7/2018', 100026, 0, 330.50);</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G27" s="5"/>
+      <c r="I27" t="str">
+        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A27,", '",$B27,"' , '13/06/1970'",", ",$D27,", ",$E27,", ",$F27,");")</f>
+        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (26, 'Alexandra' , '13/06/1970', 100026, 0, 330.50);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1301,12 +1340,13 @@
       <c r="F28" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H28" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CLIENTES VALUES(27, 'Pedro' , '8/7/2018', 100027, 0, 103.99);</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G28" s="5"/>
+      <c r="I28" t="str">
+        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A28,", '",$B28,"' , '24/07/2000'",", ",$D28,", ",$E28,", ",$F28,");")</f>
+        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (27, 'Pedro' , '24/07/2000', 100027, 0, 103.99);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1325,12 +1365,13 @@
       <c r="F29" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="H29" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CLIENTES VALUES(28, 'Debora' , '8/7/2018', 100028, 0, 59.90);</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G29" s="5"/>
+      <c r="I29" t="str">
+        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A29,", '",$B29,"' , '07/09/1955'",", ",$D29,", ",$E29,", ",$F29,");")</f>
+        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (28, 'Debora' , '07/09/1955', 100028, 0, 59.90);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1349,12 +1390,13 @@
       <c r="F30" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="H30" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CLIENTES VALUES(29, 'Julia' , '8/7/2018', 100029, 0, 99.73);</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G30" s="5"/>
+      <c r="I30" t="str">
+        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A30,", '",$B30,"' , '07/12/1990'",", ",$D30,", ",$E30,", ",$F30,");")</f>
+        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (29, 'Julia' , '07/12/1990', 100029, 0, 99.73);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1373,74 +1415,83 @@
       <c r="F31" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="H31" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CLIENTES VALUES(30, 'Bianca' , '8/7/2018', 100030, 0, 1098.70);</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G31" s="5"/>
+      <c r="I31" t="str">
+        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A31,", '",$B31,"' , '12/12/1993'",", ",$D31,", ",$E31,", ",$F31,");")</f>
+        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (30, 'Bianca' , '12/12/1993', 100030, 0, 1098.70);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="2"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="2"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="2"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="2"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="2"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="2"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="2"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="2"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/src/files/h2_insert-into-clientes.xlsx
+++ b/src/files/h2_insert-into-clientes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnny/Developer/SantanderTecnologia/internet_banking_api/src/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA20ACB-EA4E-534B-B31A-66DA46655743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425DB595-D408-BC40-BEFC-544F44260579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{23CB3ABE-F7CA-FB4A-BC40-112F5E3FA07A}"/>
   </bookViews>
@@ -149,9 +149,6 @@
     <t>COLUNA_VAZIA</t>
   </si>
   <si>
-    <t>QUERIE</t>
-  </si>
-  <si>
     <t>910.79</t>
   </si>
   <si>
@@ -243,15 +240,19 @@
   </si>
   <si>
     <t>dataFormatada</t>
+  </si>
+  <si>
+    <t>QUERIES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="166" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -290,7 +291,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -305,6 +306,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -624,9 +628,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB6878F-AB61-DA4B-9CE1-75D1975CB6FA}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -639,7 +643,7 @@
     <col min="6" max="6" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="68.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="129" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -662,13 +666,13 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H1" t="s">
         <v>36</v>
       </c>
       <c r="I1" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -678,7 +682,7 @@
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="6">
         <v>43289</v>
       </c>
       <c r="D2" s="1">
@@ -688,12 +692,12 @@
         <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2" s="4"/>
       <c r="I2" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A2,", '",$B2,"' , '8/7/2018'",", ",$D2,", ",$E2,", ",$F2,");")</f>
-        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (1, 'João' , '8/7/2018', 100001, 1, 910.79);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B2,"', '2018-07-08'",", ",$D2,", ",$E2,", ",$F2,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('João', '2018-07-08', 100001, 1, 910.79);</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -703,7 +707,7 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="6">
         <v>30074</v>
       </c>
       <c r="D3" s="1">
@@ -713,12 +717,12 @@
         <v>0</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="5"/>
       <c r="I3" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A3,", '",$B3,"' , '03/5/1982'",", ",$D3,", ",$E3,", ",$F3,");")</f>
-        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (2, 'Johnny' , '03/5/1982', 100002, 0, 570.00);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B3,"', '1982-05-03'",", ",$D3,", ",$E3,", ",$F3,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Johnny', '1982-05-03', 100002, 0, 570.00);</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -728,7 +732,7 @@
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="6">
         <v>29808</v>
       </c>
       <c r="D4" s="1">
@@ -738,12 +742,12 @@
         <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" s="5"/>
       <c r="I4" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A4,", '",$B4,"' , '10/08/1981'",", ",$D4,", ",$E4,", ",$F4,");")</f>
-        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (3, 'Silmara' , '10/08/1981', 100003, 1, 1500.00);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B4,"', '1981-08-10'",", ",$D4,", ",$E4,", ",$F4,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Silmara', '1981-08-10', 100003, 1, 1500.00);</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -753,7 +757,7 @@
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="6">
         <v>36616</v>
       </c>
       <c r="D5" s="1">
@@ -763,12 +767,12 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" s="5"/>
       <c r="I5" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A5,", '",$B5,"' , '31/03/2000'",", ",$D5,", ",$E5,", ",$F5,");")</f>
-        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (4, 'Maria' , '31/03/2000', 100004, 0, 1320.00);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B5,"', '2000-03-31'",", ",$D5,", ",$E5,", ",$F5,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Maria', '2000-03-31', 100004, 0, 1320.00);</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -778,7 +782,7 @@
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="6">
         <v>18454</v>
       </c>
       <c r="D6" s="1">
@@ -788,12 +792,12 @@
         <v>1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" s="5"/>
       <c r="I6" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A6,", '",$B6,"' , '10/07/1950'",", ",$D6,", ",$E6,", ",$F6,");")</f>
-        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (5, 'Antonio' , '10/07/1950', 100005, 1, 2360.00);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B6,"', '1950-07-10'",", ",$D6,", ",$E6,", ",$F6,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Antonio', '1950-07-10', 100005, 1, 2360.00);</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -803,7 +807,7 @@
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="6">
         <v>22635</v>
       </c>
       <c r="D7" s="1">
@@ -813,12 +817,12 @@
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7" s="5"/>
       <c r="I7" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A7,", '",$B7,"' , '20/12/1961'",", ",$D7,", ",$E7,", ",$F7,");")</f>
-        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (6, 'Aldy' , '20/12/1961', 100006, 1, 1020.00);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B7,"', '1961-12-20'",", ",$D7,", ",$E7,", ",$F7,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Aldy', '1961-12-20', 100006, 1, 1020.00);</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -828,7 +832,7 @@
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="6">
         <v>29441</v>
       </c>
       <c r="D8" s="1">
@@ -838,12 +842,12 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8" s="5"/>
       <c r="I8" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A8,", '",$B8,"' , '10/03/1963'",", ",$D8,", ",$E8,", ",$F8,");")</f>
-        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (7, 'Jefferson' , '10/03/1963', 100007, 0, 250.00);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B8,"', '1963-03-10'",", ",$D8,", ",$E8,", ",$F8,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Jefferson', '1963-03-10', 100007, 0, 250.00);</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -853,7 +857,7 @@
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="6">
         <v>16570</v>
       </c>
       <c r="D9" s="1">
@@ -863,12 +867,12 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" s="5"/>
       <c r="I9" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A9,", '",$B9,"' , '13/05/1945'",", ",$D9,", ",$E9,", ",$F9,");")</f>
-        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (8, 'Henrique' , '13/05/1945', 100008, 0, 890.00);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B9,"', '1945-05-13'",", ",$D9,", ",$E9,", ",$F9,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Henrique', '1945-05-13', 100008, 0, 890.00);</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -878,7 +882,7 @@
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="6">
         <v>36352</v>
       </c>
       <c r="D10" s="1">
@@ -888,12 +892,12 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G10" s="5"/>
       <c r="I10" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A10,", '",$B10,"' , '11/07/1999'",", ",$D10,", ",$E10,", ",$F10,");")</f>
-        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (9, 'Micheli' , '11/07/1999', 100009, 0, 775.00);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B10,"', '1999-07-11'",", ",$D10,", ",$E10,", ",$F10,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Micheli', '1999-07-11', 100009, 0, 775.00);</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -903,7 +907,7 @@
       <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="6">
         <v>37041</v>
       </c>
       <c r="D11" s="1">
@@ -913,12 +917,12 @@
         <v>1</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G11" s="5"/>
       <c r="I11" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A11,", '",$B11,"' , '30/05/2001'",", ",$D11,", ",$E11,", ",$F11,");")</f>
-        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (10, 'Silvania' , '30/05/2001', 100010, 1, 433.5);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B11,"', '2001-05-30'",", ",$D11,", ",$E11,", ",$F11,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Silvania', '2001-05-30', 100010, 1, 433.5);</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -928,7 +932,7 @@
       <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="6">
         <v>22111</v>
       </c>
       <c r="D12" s="1">
@@ -938,12 +942,12 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G12" s="5"/>
       <c r="I12" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A12,", '",$B12,"' , '14/07/1960'",", ",$D12,", ",$E12,", ",$F12,");")</f>
-        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (11, 'Florielvis' , '14/07/1960', 100011, 0, 658.00);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B12,"', '1960-07-14'",", ",$D12,", ",$E12,", ",$F12,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Florielvis', '1960-07-14', 100011, 0, 658.00);</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -953,7 +957,7 @@
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="6">
         <v>38007</v>
       </c>
       <c r="D13" s="1">
@@ -963,12 +967,12 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" s="5"/>
       <c r="I13" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A13,", '",$B13,"' , '21/01/2004'",", ",$D13,", ",$E13,", ",$F13,");")</f>
-        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (12, 'Jonathan' , '21/01/2004', 100012, 0, 709.15);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B13,"', '2004-01-21'",", ",$D13,", ",$E13,", ",$F13,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Jonathan', '2004-01-21', 100012, 0, 709.15);</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -978,7 +982,7 @@
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="6">
         <v>25871</v>
       </c>
       <c r="D14" s="1">
@@ -988,12 +992,12 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G14" s="5"/>
       <c r="I14" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A14,", '",$B14,"' , '30/10/1970'",", ",$D14,", ",$E14,", ",$F14,");")</f>
-        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (13, 'Rafael' , '30/10/1970', 100013, 0, 745.1);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B14,"', '1970-10-30'",", ",$D14,", ",$E14,", ",$F14,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Rafael', '1970-10-30', 100013, 0, 745.1);</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1003,7 +1007,7 @@
       <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="6">
         <v>33042</v>
       </c>
       <c r="D15" s="1">
@@ -1013,12 +1017,12 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G15" s="5"/>
       <c r="I15" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A15,", '",$B15,"' , '18/06/1990'",", ",$D15,", ",$E15,", ",$F15,");")</f>
-        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (14, 'Eliana' , '18/06/1990', 100014, 0, 781.05);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B15,"', '1990-06-18'",", ",$D15,", ",$E15,", ",$F15,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Eliana', '1990-06-18', 100014, 0, 781.05);</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1028,7 +1032,7 @@
       <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="6">
         <v>28661</v>
       </c>
       <c r="D16" s="1">
@@ -1038,12 +1042,12 @@
         <v>1</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G16" s="5"/>
       <c r="I16" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A16,", '",$B16,"' , '20/06/1978'",", ",$D16,", ",$E16,", ",$F16,");")</f>
-        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (15, 'Eliane' , '20/06/1978', 100015, 1, 817.00);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B16,"', '1978-06-20'",", ",$D16,", ",$E16,", ",$F16,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Eliane', '1978-06-20', 100015, 1, 817.00);</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1053,7 +1057,7 @@
       <c r="B17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="6">
         <v>26665</v>
       </c>
       <c r="D17" s="1">
@@ -1063,12 +1067,12 @@
         <v>1</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G17" s="5"/>
       <c r="I17" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A17,", '",$B17,"' , '01/01/1973'",", ",$D17,", ",$E17,", ",$F17,");")</f>
-        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (16, 'Sonia' , '01/01/1973', 100016, 1, 852.95);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B17,"', '1973-01-01'",", ",$D17,", ",$E17,", ",$F17,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Sonia', '1973-01-01', 100016, 1, 852.95);</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1078,7 +1082,7 @@
       <c r="B18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="6">
         <v>27856</v>
       </c>
       <c r="D18" s="1">
@@ -1088,12 +1092,12 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G18" s="5"/>
       <c r="I18" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A18,", '",$B18,"' , '06/04/1976'",", ",$D18,", ",$E18,", ",$F18,");")</f>
-        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (17, 'Joffily' , '06/04/1976', 100017, 0, 888.90);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B18,"', '1976'-04-06",", ",$D18,", ",$E18,", ",$F18,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Joffily', '1976'-04-06, 100017, 0, 888.90);</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1103,7 +1107,7 @@
       <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="6">
         <v>37194</v>
       </c>
       <c r="D19" s="1">
@@ -1113,12 +1117,12 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G19" s="5"/>
       <c r="I19" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A19,", '",$B19,"' , '30/10/2001'",", ",$D19,", ",$E19,", ",$F19,");")</f>
-        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (18, 'Wilson' , '30/10/2001', 100018, 0, 924.85);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B19,"', '2001-10-30'",", ",$D19,", ",$E19,", ",$F19,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Wilson', '2001-10-30', 100018, 0, 924.85);</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1128,7 +1132,7 @@
       <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="6">
         <v>24680</v>
       </c>
       <c r="D20" s="1">
@@ -1138,12 +1142,12 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G20" s="5"/>
       <c r="I20" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A20,", '",$B20,"' , '27/07/1967'",", ",$D20,", ",$E20,", ",$F20,");")</f>
-        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (19, 'Jonas' , '27/07/1967', 100019, 0, 960.80);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B20,"', '1967-07-27'",", ",$D20,", ",$E20,", ",$F20,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Jonas', '1967-07-27', 100019, 0, 960.80);</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1153,7 +1157,7 @@
       <c r="B21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="6">
         <v>29559</v>
       </c>
       <c r="D21" s="1">
@@ -1163,12 +1167,12 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G21" s="5"/>
       <c r="I21" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A21,", '",$B21,"' , '04/12/1980'",", ",$D21,", ",$E21,", ",$F21,");")</f>
-        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (20, 'Greice' , '04/12/1980', 100020, 0, 996.75);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B21,"', '1980-12-04'",", ",$D21,", ",$E21,", ",$F21,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Greice', '1980-12-04', 100020, 0, 996.75);</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1178,7 +1182,7 @@
       <c r="B22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="6">
         <v>30214</v>
       </c>
       <c r="D22" s="1">
@@ -1188,12 +1192,12 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G22" s="5"/>
       <c r="I22" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A22,", '",$B22,"' , '20/09/1982'",", ",$D22,", ",$E22,", ",$F22,");")</f>
-        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (21, 'Gisele' , '20/09/1982', 100021, 0, 1032.70);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B22,"', '1982-09-20'",", ",$D22,", ",$E22,", ",$F22,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Gisele', '1982-09-20', 100021, 0, 1032.70);</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1203,7 +1207,7 @@
       <c r="B23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="6">
         <v>25755</v>
       </c>
       <c r="D23" s="1">
@@ -1213,12 +1217,12 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G23" s="5"/>
       <c r="I23" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A23,", '",$B23,"' , '06/07/1970'",", ",$D23,", ",$E23,", ",$F23,");")</f>
-        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (22, 'Vanda' , '06/07/1970', 100022, 0, 1068.65);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B23,"', '1970-07-06'",", ",$D23,", ",$E23,", ",$F23,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Vanda', '1970-07-06', 100022, 0, 1068.65);</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1228,7 +1232,7 @@
       <c r="B24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="6">
         <v>27518</v>
       </c>
       <c r="D24" s="1">
@@ -1238,12 +1242,12 @@
         <v>1</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G24" s="5"/>
       <c r="I24" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A24,", '",$B24,"' , '04/05/1975'",", ",$D24,", ",$E24,", ",$F24,");")</f>
-        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (23, 'José' , '04/05/1975', 100023, 1, 1104.60);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B24,"', '1975-05-04'",", ",$D24,", ",$E24,", ",$F24,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('José', '1975-05-04', 100023, 1, 1104.60);</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1253,7 +1257,7 @@
       <c r="B25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="6">
         <v>29504</v>
       </c>
       <c r="D25" s="1">
@@ -1263,12 +1267,12 @@
         <v>1</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G25" s="5"/>
       <c r="I25" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A25,", '",$B25,"' , '10/10/1980'",", ",$D25,", ",$E25,", ",$F25,");")</f>
-        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (24, 'Eduardo' , '10/10/1980', 100024, 1, 1140.55);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B25,"', '1980-10-10'",", ",$D25,", ",$E25,", ",$F25,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Eduardo', '1980-10-10', 100024, 1, 1140.55);</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1278,7 +1282,7 @@
       <c r="B26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="6">
         <v>21096</v>
       </c>
       <c r="D26" s="1">
@@ -1288,12 +1292,12 @@
         <v>1</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G26" s="5"/>
       <c r="I26" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A26,", '",$B26,"' , '03/10/1957'",", ",$D26,", ",$E26,", ",$F26,");")</f>
-        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (25, 'Carlos' , '03/10/1957', 100025, 1, 1176.50);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B26,"', '1957-10-03'",", ",$D26,", ",$E26,", ",$F26,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Carlos', '1957-10-03', 100025, 1, 1176.50);</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -1303,7 +1307,7 @@
       <c r="B27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="6">
         <v>25732</v>
       </c>
       <c r="D27" s="1">
@@ -1313,12 +1317,12 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G27" s="5"/>
       <c r="I27" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A27,", '",$B27,"' , '13/06/1970'",", ",$D27,", ",$E27,", ",$F27,");")</f>
-        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (26, 'Alexandra' , '13/06/1970', 100026, 0, 330.50);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B27,"', '1970-06-13'",", ",$D27,", ",$E27,", ",$F27,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Alexandra', '1970-06-13', 100026, 0, 330.50);</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -1328,7 +1332,7 @@
       <c r="B28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="6">
         <v>36731</v>
       </c>
       <c r="D28" s="1">
@@ -1338,12 +1342,12 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G28" s="5"/>
       <c r="I28" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A28,", '",$B28,"' , '24/07/2000'",", ",$D28,", ",$E28,", ",$F28,");")</f>
-        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (27, 'Pedro' , '24/07/2000', 100027, 0, 103.99);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B28,"', '2000-07-24'",", ",$D28,", ",$E28,", ",$F28,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Pedro', '2000-07-24', 100027, 0, 103.99);</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -1353,7 +1357,7 @@
       <c r="B29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="6">
         <v>20339</v>
       </c>
       <c r="D29" s="1">
@@ -1363,12 +1367,12 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G29" s="5"/>
       <c r="I29" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A29,", '",$B29,"' , '07/09/1955'",", ",$D29,", ",$E29,", ",$F29,");")</f>
-        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (28, 'Debora' , '07/09/1955', 100028, 0, 59.90);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B29,"', '1955-09-07'",", ",$D29,", ",$E29,", ",$F29,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Debora', '1955-09-07', 100028, 0, 59.90);</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -1378,7 +1382,7 @@
       <c r="B30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="6">
         <v>33214</v>
       </c>
       <c r="D30" s="1">
@@ -1388,12 +1392,12 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G30" s="5"/>
       <c r="I30" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A30,", '",$B30,"' , '07/12/1990'",", ",$D30,", ",$E30,", ",$F30,");")</f>
-        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (29, 'Julia' , '07/12/1990', 100029, 0, 99.73);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B30,"', '1990-12-07'",", ",$D30,", ",$E30,", ",$F30,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Julia', '1990-12-07', 100029, 0, 99.73);</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -1403,7 +1407,7 @@
       <c r="B31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="6">
         <v>34315</v>
       </c>
       <c r="D31" s="1">
@@ -1413,12 +1417,12 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G31" s="5"/>
       <c r="I31" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (",$A31,", '",$B31,"' , '12/12/1993'",", ",$D31,", ",$E31,", ",$F31,");")</f>
-        <v>INSERT INTO CLIENTES (id, nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES (30, 'Bianca' , '12/12/1993', 100030, 0, 1098.70);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B31,"', '1993-12-12'",", ",$D31,", ",$E31,", ",$F31,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Bianca', '1993-12-12', 100030, 0, 1098.70);</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">

--- a/src/files/h2_insert-into-clientes.xlsx
+++ b/src/files/h2_insert-into-clientes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnny/Developer/SantanderTecnologia/internet_banking_api/src/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425DB595-D408-BC40-BEFC-544F44260579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD0A340-D78E-1041-B066-96D4BF4339EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{23CB3ABE-F7CA-FB4A-BC40-112F5E3FA07A}"/>
   </bookViews>
@@ -252,7 +252,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="166" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -308,7 +308,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -696,8 +696,8 @@
       </c>
       <c r="G2" s="4"/>
       <c r="I2" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B2,"', '2018-07-08'",", ",$D2,", ",$E2,", ",$F2,");")</f>
-        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('João', '2018-07-08', 100001, 1, 910.79);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B2,"', DATE('2018-07-08')",", ",$D2,", ",$E2,", ",$F2,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('João', DATE('2018-07-08'), 100001, 1, 910.79);</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -721,8 +721,8 @@
       </c>
       <c r="G3" s="5"/>
       <c r="I3" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B3,"', '1982-05-03'",", ",$D3,", ",$E3,", ",$F3,");")</f>
-        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Johnny', '1982-05-03', 100002, 0, 570.00);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B3,"', DATE('1982-05-03')",", ",$D3,", ",$E3,", ",$F3,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Johnny', DATE('1982-05-03'), 100002, 0, 570.00);</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -746,8 +746,8 @@
       </c>
       <c r="G4" s="5"/>
       <c r="I4" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B4,"', '1981-08-10'",", ",$D4,", ",$E4,", ",$F4,");")</f>
-        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Silmara', '1981-08-10', 100003, 1, 1500.00);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B4,"', DATE('1981-08-10')",", ",$D4,", ",$E4,", ",$F4,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Silmara', DATE('1981-08-10'), 100003, 1, 1500.00);</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -771,8 +771,8 @@
       </c>
       <c r="G5" s="5"/>
       <c r="I5" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B5,"', '2000-03-31'",", ",$D5,", ",$E5,", ",$F5,");")</f>
-        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Maria', '2000-03-31', 100004, 0, 1320.00);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B5,"', DATE('2000-03-31')",", ",$D5,", ",$E5,", ",$F5,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Maria', DATE('2000-03-31'), 100004, 0, 1320.00);</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -796,8 +796,8 @@
       </c>
       <c r="G6" s="5"/>
       <c r="I6" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B6,"', '1950-07-10'",", ",$D6,", ",$E6,", ",$F6,");")</f>
-        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Antonio', '1950-07-10', 100005, 1, 2360.00);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B6,"', DATE('1950-07-10')",", ",$D6,", ",$E6,", ",$F6,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Antonio', DATE('1950-07-10'), 100005, 1, 2360.00);</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -821,8 +821,8 @@
       </c>
       <c r="G7" s="5"/>
       <c r="I7" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B7,"', '1961-12-20'",", ",$D7,", ",$E7,", ",$F7,");")</f>
-        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Aldy', '1961-12-20', 100006, 1, 1020.00);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B7,"', DATE('1961-12-20')",", ",$D7,", ",$E7,", ",$F7,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Aldy', DATE('1961-12-20'), 100006, 1, 1020.00);</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -846,8 +846,8 @@
       </c>
       <c r="G8" s="5"/>
       <c r="I8" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B8,"', '1963-03-10'",", ",$D8,", ",$E8,", ",$F8,");")</f>
-        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Jefferson', '1963-03-10', 100007, 0, 250.00);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B8,"', DATE('1963-03-10')",", ",$D8,", ",$E8,", ",$F8,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Jefferson', DATE('1963-03-10'), 100007, 0, 250.00);</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -871,8 +871,8 @@
       </c>
       <c r="G9" s="5"/>
       <c r="I9" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B9,"', '1945-05-13'",", ",$D9,", ",$E9,", ",$F9,");")</f>
-        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Henrique', '1945-05-13', 100008, 0, 890.00);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B9,"', DATE('1945-05-13')",", ",$D9,", ",$E9,", ",$F9,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Henrique', DATE('1945-05-13'), 100008, 0, 890.00);</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -896,8 +896,8 @@
       </c>
       <c r="G10" s="5"/>
       <c r="I10" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B10,"', '1999-07-11'",", ",$D10,", ",$E10,", ",$F10,");")</f>
-        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Micheli', '1999-07-11', 100009, 0, 775.00);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B10,"', DATE('1999-07-11')",", ",$D10,", ",$E10,", ",$F10,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Micheli', DATE('1999-07-11'), 100009, 0, 775.00);</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -921,8 +921,8 @@
       </c>
       <c r="G11" s="5"/>
       <c r="I11" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B11,"', '2001-05-30'",", ",$D11,", ",$E11,", ",$F11,");")</f>
-        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Silvania', '2001-05-30', 100010, 1, 433.5);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B11,"', DATE('2001-05-30')",", ",$D11,", ",$E11,", ",$F11,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Silvania', DATE('2001-05-30'), 100010, 1, 433.5);</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -946,8 +946,8 @@
       </c>
       <c r="G12" s="5"/>
       <c r="I12" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B12,"', '1960-07-14'",", ",$D12,", ",$E12,", ",$F12,");")</f>
-        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Florielvis', '1960-07-14', 100011, 0, 658.00);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B12,"', DATE('1960-07-14')",", ",$D12,", ",$E12,", ",$F12,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Florielvis', DATE('1960-07-14'), 100011, 0, 658.00);</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -971,8 +971,8 @@
       </c>
       <c r="G13" s="5"/>
       <c r="I13" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B13,"', '2004-01-21'",", ",$D13,", ",$E13,", ",$F13,");")</f>
-        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Jonathan', '2004-01-21', 100012, 0, 709.15);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B13,"', DATE('2004-01-21')",", ",$D13,", ",$E13,", ",$F13,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Jonathan', DATE('2004-01-21'), 100012, 0, 709.15);</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -996,8 +996,8 @@
       </c>
       <c r="G14" s="5"/>
       <c r="I14" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B14,"', '1970-10-30'",", ",$D14,", ",$E14,", ",$F14,");")</f>
-        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Rafael', '1970-10-30', 100013, 0, 745.1);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B14,"', DATE('1970-10-30')",", ",$D14,", ",$E14,", ",$F14,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Rafael', DATE('1970-10-30'), 100013, 0, 745.1);</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1021,8 +1021,8 @@
       </c>
       <c r="G15" s="5"/>
       <c r="I15" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B15,"', '1990-06-18'",", ",$D15,", ",$E15,", ",$F15,");")</f>
-        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Eliana', '1990-06-18', 100014, 0, 781.05);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B15,"', DATE('1990-06-18')",", ",$D15,", ",$E15,", ",$F15,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Eliana', DATE('1990-06-18'), 100014, 0, 781.05);</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1046,8 +1046,8 @@
       </c>
       <c r="G16" s="5"/>
       <c r="I16" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B16,"', '1978-06-20'",", ",$D16,", ",$E16,", ",$F16,");")</f>
-        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Eliane', '1978-06-20', 100015, 1, 817.00);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B16,"', DATE('1978-06-20')",", ",$D16,", ",$E16,", ",$F16,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Eliane', DATE('1978-06-20'), 100015, 1, 817.00);</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1071,8 +1071,8 @@
       </c>
       <c r="G17" s="5"/>
       <c r="I17" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B17,"', '1973-01-01'",", ",$D17,", ",$E17,", ",$F17,");")</f>
-        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Sonia', '1973-01-01', 100016, 1, 852.95);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B17,"', DATE('1973-01-01')",", ",$D17,", ",$E17,", ",$F17,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Sonia', DATE('1973-01-01'), 100016, 1, 852.95);</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1096,8 +1096,8 @@
       </c>
       <c r="G18" s="5"/>
       <c r="I18" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B18,"', '1976'-04-06",", ",$D18,", ",$E18,", ",$F18,");")</f>
-        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Joffily', '1976'-04-06, 100017, 0, 888.90);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B18,"', DATE('1976-04-06')",", ",$D18,", ",$E18,", ",$F18,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Joffily', DATE('1976-04-06'), 100017, 0, 888.90);</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1121,8 +1121,8 @@
       </c>
       <c r="G19" s="5"/>
       <c r="I19" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B19,"', '2001-10-30'",", ",$D19,", ",$E19,", ",$F19,");")</f>
-        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Wilson', '2001-10-30', 100018, 0, 924.85);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B19,"', DATE('2001-10-30')",", ",$D19,", ",$E19,", ",$F19,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Wilson', DATE('2001-10-30'), 100018, 0, 924.85);</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1146,8 +1146,8 @@
       </c>
       <c r="G20" s="5"/>
       <c r="I20" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B20,"', '1967-07-27'",", ",$D20,", ",$E20,", ",$F20,");")</f>
-        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Jonas', '1967-07-27', 100019, 0, 960.80);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B20,"', DATE('1967-07-27')",", ",$D20,", ",$E20,", ",$F20,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Jonas', DATE('1967-07-27'), 100019, 0, 960.80);</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1171,8 +1171,8 @@
       </c>
       <c r="G21" s="5"/>
       <c r="I21" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B21,"', '1980-12-04'",", ",$D21,", ",$E21,", ",$F21,");")</f>
-        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Greice', '1980-12-04', 100020, 0, 996.75);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B21,"', DATE('1980-12-04')",", ",$D21,", ",$E21,", ",$F21,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Greice', DATE('1980-12-04'), 100020, 0, 996.75);</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1196,8 +1196,8 @@
       </c>
       <c r="G22" s="5"/>
       <c r="I22" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B22,"', '1982-09-20'",", ",$D22,", ",$E22,", ",$F22,");")</f>
-        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Gisele', '1982-09-20', 100021, 0, 1032.70);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B22,"', DATE('1982-09-20')",", ",$D22,", ",$E22,", ",$F22,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Gisele', DATE('1982-09-20'), 100021, 0, 1032.70);</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1221,8 +1221,8 @@
       </c>
       <c r="G23" s="5"/>
       <c r="I23" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B23,"', '1970-07-06'",", ",$D23,", ",$E23,", ",$F23,");")</f>
-        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Vanda', '1970-07-06', 100022, 0, 1068.65);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B23,"', DATE('1970-07-06')",", ",$D23,", ",$E23,", ",$F23,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Vanda', DATE('1970-07-06'), 100022, 0, 1068.65);</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1246,8 +1246,8 @@
       </c>
       <c r="G24" s="5"/>
       <c r="I24" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B24,"', '1975-05-04'",", ",$D24,", ",$E24,", ",$F24,");")</f>
-        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('José', '1975-05-04', 100023, 1, 1104.60);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B24,"', DATE('1975-05-04')",", ",$D24,", ",$E24,", ",$F24,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('José', DATE('1975-05-04'), 100023, 1, 1104.60);</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1271,8 +1271,8 @@
       </c>
       <c r="G25" s="5"/>
       <c r="I25" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B25,"', '1980-10-10'",", ",$D25,", ",$E25,", ",$F25,");")</f>
-        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Eduardo', '1980-10-10', 100024, 1, 1140.55);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B25,"', DATE('1980-10-10')",", ",$D25,", ",$E25,", ",$F25,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Eduardo', DATE('1980-10-10'), 100024, 1, 1140.55);</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1296,8 +1296,8 @@
       </c>
       <c r="G26" s="5"/>
       <c r="I26" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B26,"', '1957-10-03'",", ",$D26,", ",$E26,", ",$F26,");")</f>
-        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Carlos', '1957-10-03', 100025, 1, 1176.50);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B26,"', DATE('1957-10-03')",", ",$D26,", ",$E26,", ",$F26,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Carlos', DATE('1957-10-03'), 100025, 1, 1176.50);</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -1321,8 +1321,8 @@
       </c>
       <c r="G27" s="5"/>
       <c r="I27" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B27,"', '1970-06-13'",", ",$D27,", ",$E27,", ",$F27,");")</f>
-        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Alexandra', '1970-06-13', 100026, 0, 330.50);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B27,"', DATE('1970-06-13')",", ",$D27,", ",$E27,", ",$F27,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Alexandra', DATE('1970-06-13'), 100026, 0, 330.50);</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -1346,8 +1346,8 @@
       </c>
       <c r="G28" s="5"/>
       <c r="I28" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B28,"', '2000-07-24'",", ",$D28,", ",$E28,", ",$F28,");")</f>
-        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Pedro', '2000-07-24', 100027, 0, 103.99);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B28,"', DATE('2000-07-24')",", ",$D28,", ",$E28,", ",$F28,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Pedro', DATE('2000-07-24'), 100027, 0, 103.99);</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -1371,8 +1371,8 @@
       </c>
       <c r="G29" s="5"/>
       <c r="I29" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B29,"', '1955-09-07'",", ",$D29,", ",$E29,", ",$F29,");")</f>
-        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Debora', '1955-09-07', 100028, 0, 59.90);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B29,"', DATE('1955-09-07')",", ",$D29,", ",$E29,", ",$F29,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Debora', DATE('1955-09-07'), 100028, 0, 59.90);</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -1396,8 +1396,8 @@
       </c>
       <c r="G30" s="5"/>
       <c r="I30" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B30,"', '1990-12-07'",", ",$D30,", ",$E30,", ",$F30,");")</f>
-        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Julia', '1990-12-07', 100029, 0, 99.73);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B30,"', DATE('1990-12-07')",", ",$D30,", ",$E30,", ",$F30,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Julia', DATE('1990-12-07'), 100029, 0, 99.73);</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -1421,8 +1421,8 @@
       </c>
       <c r="G31" s="5"/>
       <c r="I31" t="str">
-        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B31,"', '1993-12-12'",", ",$D31,", ",$E31,", ",$F31,");")</f>
-        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Bianca', '1993-12-12', 100030, 0, 1098.70);</v>
+        <f>CONCATENATE("INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('",$B31,"', DATE('1993-12-12')",", ",$D31,", ",$E31,", ",$F31,");")</f>
+        <v>INSERT INTO CLIENTES (nome, data_de_nascimento, numero_da_conta, plano_exclusive, saldo) VALUES ('Bianca', DATE('1993-12-12'), 100030, 0, 1098.70);</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
